--- a/Timming Desarrollo.xlsx
+++ b/Timming Desarrollo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vista" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Complegidad</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>el dieño artistíco ya estava realizado</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
@@ -805,13 +808,7 @@
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -937,6 +934,12 @@
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1234,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -1249,853 +1252,853 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="57.6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>4</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="86.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="28.8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="41.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>1</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>1</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="39" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>1</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29">
         <f>SUM(E3:E17)</f>
         <v>15</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="28">
         <v>4</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2128,59 +2131,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>1</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2231,133 +2234,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="129.6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="86.4">
       <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="303.60000000000002">
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="27.6">
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="49" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="57.6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2387,66 +2390,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="72">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2463,12 +2466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2485,125 +2494,125 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="49"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="49"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
